--- a/data/testingset.xlsx
+++ b/data/testingset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w20027449_northumbria_ac_uk/Documents/Year 2/KF5012- Software Enginering Practice/Assessment/Group/Quirrell/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05100BA0-F9AC-49F1-A01F-C4DFF18CED78}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA5E135-7513-4372-9BE9-BB99078D55BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Patient Id</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +666,154 @@
       </c>
       <c r="X2">
         <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
     </row>

--- a/data/testingset.xlsx
+++ b/data/testingset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w20027449_northumbria_ac_uk/Documents/Year 2/KF5012- Software Enginering Practice/Assessment/Group/Quirrell/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE654AE7-15FE-4690-8ABD-FA95D03BCF9B}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="114_{31E94DB1-D9A4-45FD-9FA1-9F42A4BDCAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34B3549C-4B92-4F32-85FB-55C777F5A92C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Patient Id</t>
   </si>
@@ -96,10 +96,16 @@
     <t>Snoring</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +492,7 @@
     <col min="9" max="9" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,13 +565,10 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -635,6 +638,228 @@
       </c>
       <c r="X2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/testingset.xlsx
+++ b/data/testingset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w20027449_northumbria_ac_uk/Documents/Year 2/KF5012- Software Enginering Practice/Assessment/Group/Quirrell/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA5E135-7513-4372-9BE9-BB99078D55BD}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30951E89-EDF3-495B-8232-02AD42F682E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,13 +781,13 @@
         <v>8</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/testingset.xlsx
+++ b/data/testingset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w20027449_northumbria_ac_uk/Documents/Year 2/KF5012- Software Enginering Practice/Assessment/Group/Quirrell/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30951E89-EDF3-495B-8232-02AD42F682E4}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6DE7E8-D748-417B-BC6C-35A56A49B9AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Patient Id</t>
   </si>
@@ -115,16 +115,38 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,8 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,15 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="23.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -511,10 +536,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -523,31 +548,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -757,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -766,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>8</v>
@@ -784,44 +809,120 @@
         <v>8</v>
       </c>
       <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y1001">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
